--- a/Pickles/Courses for Course Load Submission Computer Science.xlsx
+++ b/Pickles/Courses for Course Load Submission Computer Science.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,6 +804,51 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CS F363</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Compiler Construction</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Ben</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Callie</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Pickles/Courses for Course Load Submission Computer Science.xlsx
+++ b/Pickles/Courses for Course Load Submission Computer Science.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,12 +477,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CS F303</t>
+          <t>CS F111</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Computer Programming</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -495,22 +495,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Aaron</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Erling</t>
+          <t>Aaron</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -520,68 +520,53 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CS F111</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Computer Programming</t>
-        </is>
-      </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Aaron</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Callie</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Erling</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Callie</t>
+          <t>Aaron</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -590,13 +575,13 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Erling</t>
+          <t>Ben</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="D10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -605,13 +590,13 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Callie</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="D11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -620,13 +605,13 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Dan</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="D12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -635,13 +620,13 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Callie</t>
+          <t>Erling</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="D13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -650,13 +635,13 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Aaron</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="D14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -665,13 +650,13 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Erling</t>
+          <t>Ben</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -680,13 +665,13 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Aaron</t>
+          <t>Callie</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="D16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -695,13 +680,13 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>Dan</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -710,13 +695,13 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Callie</t>
+          <t>Erling</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -725,49 +710,64 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>No Data</t>
         </is>
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS F266</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Comp Nuero</t>
+        </is>
+      </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Derrick liten</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Erling</t>
+          <t>Dan Drown</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>No Data</t>
+          <t>John Lennon</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CS F266</t>
+          <t>CS F363</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Comp Nuero</t>
+          <t>Compiler Construction</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -780,12 +780,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Derrick liten</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dan Drown</t>
+          <t>Ben</t>
         </is>
       </c>
     </row>
@@ -800,52 +800,97 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>John Lennon</t>
+          <t>Callie</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>CS F363</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Compiler Construction</t>
-        </is>
-      </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>&lt;QuerySet [&lt;Faculty_List: Dan Drown&gt;, &lt;Faculty_List: John Lennon&gt;]&gt;</t>
         </is>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CS F303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Computer Networks</t>
+        </is>
+      </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>John Lennon</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>John/Derrick</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>T</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Callie</t>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>&lt;QuerySet [&lt;Faculty_List: John Lennon&gt;, &lt;Faculty_List: Derrick liten&gt;]&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>&lt;QuerySet [&lt;Faculty_List: Dan Drown&gt;, &lt;Faculty_List: John Lennon&gt;]&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>&lt;QuerySet [&lt;Faculty_List: Derrick liten&gt;]&gt;</t>
         </is>
       </c>
     </row>

--- a/Pickles/Courses for Course Load Submission Computer Science.xlsx
+++ b/Pickles/Courses for Course Load Submission Computer Science.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,12 +717,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CS F266</t>
+          <t>CS F303</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Comp Nuero</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -735,12 +735,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Derrick liten</t>
+          <t>John Lennon</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dan Drown</t>
+          <t>John/Derrick</t>
         </is>
       </c>
     </row>
@@ -755,37 +755,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>John Lennon</t>
+          <t>&lt;QuerySet [&lt;Faculty_List: John Lennon&gt;, &lt;Faculty_List: Derrick liten&gt;]&gt;</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>CS F363</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Compiler Construction</t>
-        </is>
-      </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>nan</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ben</t>
+          <t>&lt;QuerySet [&lt;Faculty_List: Dan Drown&gt;, &lt;Faculty_List: John Lennon&gt;]&gt;</t>
         </is>
       </c>
     </row>
@@ -795,102 +780,57 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Callie</t>
+          <t>&lt;QuerySet [&lt;Faculty_List: Derrick liten&gt;]&gt;</t>
         </is>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CS F363</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Compiler Construction</t>
+        </is>
+      </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>John Lennon</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>&lt;QuerySet [&lt;Faculty_List: Dan Drown&gt;, &lt;Faculty_List: John Lennon&gt;]&gt;</t>
+          <t>John/Derrick</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>CS F303</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
       <c r="D24" t="n">
         <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>John Lennon</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>John/Derrick</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>&lt;QuerySet [&lt;Faculty_List: John Lennon&gt;, &lt;Faculty_List: Derrick liten&gt;]&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="D26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>&lt;QuerySet [&lt;Faculty_List: Dan Drown&gt;, &lt;Faculty_List: John Lennon&gt;]&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>&lt;QuerySet [&lt;Faculty_List: Derrick liten&gt;]&gt;</t>
+          <t>Dan/John</t>
         </is>
       </c>
     </row>
